--- a/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
+++ b/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,14 +1422,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Cristi</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1502,7 +1498,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1569,7 +1565,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1641,10 +1637,14 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1704,14 +1704,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1768,7 +1764,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1831,7 +1827,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1899,7 +1895,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1967,7 +1963,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2034,7 +2030,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2085,10 +2081,14 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2148,12 +2148,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2219,14 +2219,10 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2267,16 +2263,8 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Via</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -2391,7 +2379,11 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -2417,14 +2409,10 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Cristi</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2452,7 +2440,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2468,10 +2456,15 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2495,7 +2488,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2511,15 +2504,10 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2555,7 +2543,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #145, FOND DU LAC</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2575,7 +2563,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2602,7 +2590,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CONDON OIL #145, FOND DU LAC</t>
+          <t>1177 W JOHNSON ST</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2622,7 +2610,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2649,7 +2637,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1177 W JOHNSON ST</t>
+          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2669,7 +2657,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2696,7 +2684,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2716,7 +2704,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2755,7 +2743,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2775,10 +2763,14 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2815,7 +2807,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #225, BRANDON</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2828,21 +2820,9 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2874,7 +2854,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CONDON OIL #225, BRANDON</t>
+          <t>102 S WOODWARD</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2913,7 +2893,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>102 S WOODWARD</t>
+          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2923,7 +2903,11 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2946,11 +2930,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
@@ -2972,7 +2952,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2996,9 +2976,21 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3013,11 +3005,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3037,17 +3025,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3094,21 +3082,9 @@
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3117,10 +3093,14 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Cristi</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3165,14 +3145,10 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3196,18 +3172,22 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Carlie)</t>
+          <t>Driver,
+Gold Camry</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3217,10 +3197,14 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3244,20 +3228,15 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3269,14 +3248,10 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3300,17 +3275,18 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3320,10 +3296,14 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3347,13 +3327,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>@ Store
-(w/ Carlie)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -3368,14 +3347,10 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3399,7 +3374,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3419,7 +3394,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3446,7 +3421,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3466,7 +3441,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3493,7 +3468,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3513,10 +3488,14 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3540,7 +3519,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3560,7 +3539,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3584,21 +3563,9 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3611,7 +3578,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3650,7 +3617,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3689,7 +3656,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3721,21 +3688,9 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3788,7 +3743,11 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
@@ -3817,7 +3776,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3848,7 +3807,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3879,7 +3838,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
+          <t>JUNEAU 26 SHELL</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3910,7 +3869,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>JUNEAU 26 SHELL</t>
+          <t>470 N MAIN ST</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -3941,7 +3900,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>470 N MAIN ST</t>
+          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -3972,7 +3931,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
+          <t xml:space="preserve">*SALE INVENTORY </t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4001,11 +3960,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*SALE INVENTORY </t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4031,9 +3986,22 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Gold Camry
+Equip</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
@@ -4060,18 +4028,17 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>Gold Camry
-Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -4081,45 +4048,6 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
+++ b/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
@@ -3421,7 +3421,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3512,21 +3512,9 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>

--- a/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
+++ b/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3441,10 +3441,14 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3488,7 +3492,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3527,7 +3531,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3566,7 +3570,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3605,7 +3609,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3637,21 +3641,9 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3704,7 +3696,11 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3733,7 +3729,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3764,7 +3760,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -3795,7 +3791,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
+          <t>JUNEAU 26 SHELL</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3826,7 +3822,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>JUNEAU 26 SHELL</t>
+          <t>470 N MAIN ST</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3857,7 +3853,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>470 N MAIN ST</t>
+          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -3888,7 +3884,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
+          <t xml:space="preserve">*SALE INVENTORY </t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -3917,11 +3913,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*SALE INVENTORY </t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -3947,9 +3939,22 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Gold Camry
+Equip</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -3976,18 +3981,17 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Gold Camry
-Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -3997,45 +4001,6 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
+++ b/08-11-24 to 08-17-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1370,13 +1370,13 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2263,9 +2263,21 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2318,9 +2330,21 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2378,13 +2402,21 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2438,11 +2470,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2486,11 +2514,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2543,7 +2567,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CONDON OIL #145, FOND DU LAC</t>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2551,7 +2575,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2590,7 +2614,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1177 W JOHNSON ST</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2598,7 +2622,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2637,7 +2661,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2645,7 +2669,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>PICK #867 +RX, BROWN DEER</t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2684,7 +2708,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>CONDON OIL #145, FOND DU LAC</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2692,7 +2716,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>9200 N GREEN BAY RD</t>
+          <t>JUNEAU 26 SHELL</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2743,7 +2767,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1177 W JOHNSON ST</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2751,7 +2775,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CW7zvhV8HSR2</t>
+          <t>470 N MAIN ST</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2807,7 +2831,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CONDON OIL #225, BRANDON</t>
+          <t>https://goo.gl/maps/2r2RdojsqBC2</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2815,7 +2839,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2854,7 +2878,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>102 S WOODWARD</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2862,7 +2886,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>GRAFTON CREW - NO MEET FOR THIS STORE</t>
+          <t xml:space="preserve">*SALE INVENTORY </t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2893,7 +2917,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2930,7 +2954,11 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CONDON OIL #225, BRANDON</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
@@ -2940,12 +2968,13 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Gold Camry
+Equip</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -2976,21 +3005,13 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+          <t>102 S WOODWARD</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3002,7 +3023,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3023,32 +3048,16 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/HwPRZ5jK7Cv</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
@@ -3086,21 +3095,9 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3134,18 +3131,26 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3182,29 +3187,29 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Jacqui</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3234,23 +3239,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3289,21 +3282,9 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3337,19 +3318,15 @@
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Robyn</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -3384,19 +3361,15 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3434,21 +3407,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3485,21 +3446,9 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3507,500 +3456,6 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>JUNEAU 26 SHELL</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>470 N MAIN ST</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*SALE INVENTORY </t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Gold Camry
-Equip</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
